--- a/Biblioteca/BACKEND/data.xlsx
+++ b/Biblioteca/BACKEND/data.xlsx
@@ -367,7 +367,7 @@
     <row r="1" ht="40.4" customHeight="0">
       <c s="1" t="inlineStr" r="A1">
         <is>
-          <t xml:space="preserve">mercoledì 17 aprile 2019</t>
+          <t xml:space="preserve">lunedì 20 maggio 2019</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B1">
